--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE97C774-54B8-424A-8CDF-5D04B8C2D9BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{29FF570E-F98A-4042-9EB9-0F50A8CD58DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,18 +149,9 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Общая сумма</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки</t>
   </si>
   <si>
-    <t>Максимальная сумма</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -178,12 +168,21 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,17 +541,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F70FF-5DAE-4603-B700-D2EDE2B4BFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -577,13 +576,13 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>38</v>
@@ -592,16 +591,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -688,7 +687,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A40" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2120,7 +2119,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <f>FLOOR(172289.55, 1)</f>
@@ -2129,7 +2128,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2138,7 +2137,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(G3:G38)</f>
@@ -2147,10 +2146,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <f>MAX(K3:K38)</f>
+        <f>MAX(E3:E38)</f>
         <v>5621.0000000000009</v>
       </c>
     </row>

--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -146,12 +146,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -218,15 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +546,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,66 +559,76 @@
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>73</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>A1*1.1</f>
         <v>80.300000000000011</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>C3*D3</f>
         <v>5621.0000000000009</v>
       </c>
@@ -627,39 +638,39 @@
       <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f>E3+J3</f>
         <v>5621.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>D3</f>
         <v>80.300000000000011</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>5580.85</v>
       </c>
@@ -669,39 +680,39 @@
       <c r="G4" s="3">
         <v>44806</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>5580.85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>80.300000000000011</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>5540.7000000000007</v>
       </c>
@@ -711,39 +722,39 @@
       <c r="G5" s="3">
         <v>44807</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>5540.7000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>5500.5500000000011</v>
       </c>
@@ -753,39 +764,39 @@
       <c r="G6" s="3">
         <v>44808</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="3"/>
         <v>5500.5500000000011</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>5460.4000000000005</v>
       </c>
@@ -795,39 +806,39 @@
       <c r="G7" s="3">
         <v>44809</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>5460.4000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>5420.2500000000009</v>
       </c>
@@ -837,39 +848,39 @@
       <c r="G8" s="3">
         <v>44810</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="3"/>
         <v>5420.2500000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>5380.1</v>
       </c>
@@ -879,39 +890,39 @@
       <c r="G9" s="3">
         <v>44811</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="3"/>
         <v>5380.1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>5339.9500000000007</v>
       </c>
@@ -921,39 +932,39 @@
       <c r="G10" s="3">
         <v>44812</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>5339.9500000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>5299.8000000000011</v>
       </c>
@@ -963,39 +974,39 @@
       <c r="G11" s="3">
         <v>44813</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>5299.8000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>5259.6500000000005</v>
       </c>
@@ -1005,39 +1016,39 @@
       <c r="G12" s="3">
         <v>44814</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="3"/>
         <v>5269.6500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>5219.5000000000009</v>
       </c>
@@ -1047,39 +1058,39 @@
       <c r="G13" s="3">
         <v>44815</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <f t="shared" si="3"/>
         <v>5239.5000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>5179.3500000000004</v>
       </c>
@@ -1089,39 +1100,39 @@
       <c r="G14" s="3">
         <v>44816</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f t="shared" si="3"/>
         <v>5209.3500000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>5139.2000000000007</v>
       </c>
@@ -1131,39 +1142,39 @@
       <c r="G15" s="3">
         <v>44817</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <f t="shared" si="3"/>
         <v>5179.2000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>5099.0500000000011</v>
       </c>
@@ -1173,39 +1184,39 @@
       <c r="G16" s="3">
         <v>44818</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f t="shared" si="3"/>
         <v>5149.0500000000011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>5058.9000000000005</v>
       </c>
@@ -1215,39 +1226,39 @@
       <c r="G17" s="3">
         <v>44819</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f t="shared" si="3"/>
         <v>5118.9000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>5018.7500000000009</v>
       </c>
@@ -1257,39 +1268,39 @@
       <c r="G18" s="3">
         <v>44820</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <f t="shared" si="3"/>
         <v>5088.7500000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>4978.6000000000004</v>
       </c>
@@ -1299,39 +1310,39 @@
       <c r="G19" s="3">
         <v>44821</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <f t="shared" si="3"/>
         <v>5058.6000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>4938.4500000000007</v>
       </c>
@@ -1341,39 +1352,39 @@
       <c r="G20" s="3">
         <v>44822</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f t="shared" si="3"/>
         <v>5028.4500000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>4898.3000000000011</v>
       </c>
@@ -1383,39 +1394,39 @@
       <c r="G21" s="3">
         <v>44823</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <f t="shared" si="3"/>
         <v>4998.3000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>4858.1500000000005</v>
       </c>
@@ -1425,39 +1436,39 @@
       <c r="G22" s="3">
         <v>44824</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <f t="shared" si="3"/>
         <v>4968.1500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>4818.0000000000009</v>
       </c>
@@ -1467,39 +1478,39 @@
       <c r="G23" s="3">
         <v>44825</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <f t="shared" si="3"/>
         <v>4938.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>4777.8500000000004</v>
       </c>
@@ -1509,39 +1520,39 @@
       <c r="G24" s="3">
         <v>44826</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <f t="shared" si="3"/>
         <v>4907.8500000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>4737.7000000000007</v>
       </c>
@@ -1551,39 +1562,39 @@
       <c r="G25" s="3">
         <v>44827</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <f t="shared" si="3"/>
         <v>4877.7000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>4697.5500000000011</v>
       </c>
@@ -1593,39 +1604,39 @@
       <c r="G26" s="3">
         <v>44828</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <f t="shared" si="3"/>
         <v>4847.5500000000011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>4657.4000000000005</v>
       </c>
@@ -1635,39 +1646,39 @@
       <c r="G27" s="3">
         <v>44829</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <f t="shared" si="3"/>
         <v>4817.4000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>4617.2500000000009</v>
       </c>
@@ -1677,39 +1688,39 @@
       <c r="G28" s="3">
         <v>44830</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <f t="shared" si="3"/>
         <v>4787.2500000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>4577.1000000000004</v>
       </c>
@@ -1719,39 +1730,39 @@
       <c r="G29" s="3">
         <v>44831</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <f t="shared" si="3"/>
         <v>4757.1000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>4536.9500000000007</v>
       </c>
@@ -1761,39 +1772,39 @@
       <c r="G30" s="3">
         <v>44832</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <f t="shared" si="3"/>
         <v>4726.9500000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>4496.8000000000011</v>
       </c>
@@ -1803,39 +1814,39 @@
       <c r="G31" s="3">
         <v>44833</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <f t="shared" si="3"/>
         <v>4696.8000000000011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>4456.6500000000005</v>
       </c>
@@ -1845,39 +1856,39 @@
       <c r="G32" s="3">
         <v>44834</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <f t="shared" si="3"/>
         <v>4666.6500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>4416.5000000000009</v>
       </c>
@@ -1887,39 +1898,39 @@
       <c r="G33" s="3">
         <v>44835</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <f t="shared" si="3"/>
         <v>4636.5000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>80.300000000000011</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>4376.3500000000004</v>
       </c>
@@ -1929,39 +1940,39 @@
       <c r="G34" s="3">
         <v>44836</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
         <v>4606.3500000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <f>D3/2</f>
         <v>40.150000000000006</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>2168.1000000000004</v>
       </c>
@@ -1971,39 +1982,39 @@
       <c r="G35" s="3">
         <v>44837</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <f t="shared" si="3"/>
         <v>2408.1000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <f>D3/2</f>
         <v>40.150000000000006</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>2148.0250000000001</v>
       </c>
@@ -2013,39 +2024,39 @@
       <c r="G36" s="3">
         <v>44838</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <f t="shared" si="3"/>
         <v>2398.0250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <f>D3/2</f>
         <v>40.150000000000006</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>2127.9500000000003</v>
       </c>
@@ -2055,39 +2066,39 @@
       <c r="G37" s="3">
         <v>44839</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <f t="shared" si="3"/>
         <v>2387.9500000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <f>D3/2</f>
         <v>40.150000000000006</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>2107.8750000000005</v>
       </c>
@@ -2097,61 +2108,106 @@
       <c r="G38" s="3">
         <v>44840</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <f t="shared" si="3"/>
         <v>2377.8750000000005</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1">
         <f>FLOOR(172289.55, 1)</f>
         <v>172289</v>
       </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>41</v>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(G3:G38)</f>
         <v>44840</v>
       </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <f>MAX(E3:E38)</f>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <f>MAX(K3:K38)</f>
         <v>5621.0000000000009</v>
       </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -183,6 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -224,11 +227,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,7 +549,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,10 +635,10 @@
         <f>C3*D3</f>
         <v>5621.0000000000009</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -662,7 +665,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
@@ -674,10 +677,10 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>5580.85</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="5">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -704,7 +707,7 @@
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
@@ -716,10 +719,10 @@
         <f t="shared" si="0"/>
         <v>5540.7000000000007</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -746,7 +749,7 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
@@ -758,10 +761,10 @@
         <f t="shared" si="0"/>
         <v>5500.5500000000011</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -788,7 +791,7 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
@@ -800,10 +803,10 @@
         <f t="shared" si="0"/>
         <v>5460.4000000000005</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -830,7 +833,7 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
@@ -842,10 +845,10 @@
         <f t="shared" si="0"/>
         <v>5420.2500000000009</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -872,7 +875,7 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
@@ -884,10 +887,10 @@
         <f t="shared" si="0"/>
         <v>5380.1</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -914,7 +917,7 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
@@ -926,10 +929,10 @@
         <f t="shared" si="0"/>
         <v>5339.9500000000007</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -956,7 +959,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
@@ -968,10 +971,10 @@
         <f t="shared" si="0"/>
         <v>5299.8000000000011</v>
       </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -998,7 +1001,7 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
@@ -1010,10 +1013,10 @@
         <f t="shared" si="0"/>
         <v>5259.6500000000005</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1040,7 +1043,7 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
@@ -1052,10 +1055,10 @@
         <f t="shared" si="0"/>
         <v>5219.5000000000009</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1082,7 +1085,7 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
@@ -1094,10 +1097,10 @@
         <f t="shared" si="0"/>
         <v>5179.3500000000004</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1124,7 +1127,7 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
@@ -1136,10 +1139,10 @@
         <f t="shared" si="0"/>
         <v>5139.2000000000007</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1166,7 +1169,7 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
@@ -1178,10 +1181,10 @@
         <f t="shared" si="0"/>
         <v>5099.0500000000011</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1208,7 +1211,7 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
@@ -1220,10 +1223,10 @@
         <f t="shared" si="0"/>
         <v>5058.9000000000005</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1250,7 +1253,7 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
@@ -1262,10 +1265,10 @@
         <f t="shared" si="0"/>
         <v>5018.7500000000009</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1292,7 +1295,7 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
@@ -1304,10 +1307,10 @@
         <f t="shared" si="0"/>
         <v>4978.6000000000004</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1334,7 +1337,7 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
@@ -1346,10 +1349,10 @@
         <f t="shared" si="0"/>
         <v>4938.4500000000007</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1376,7 +1379,7 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
@@ -1388,10 +1391,10 @@
         <f t="shared" si="0"/>
         <v>4898.3000000000011</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1418,7 +1421,7 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
@@ -1430,10 +1433,10 @@
         <f t="shared" si="0"/>
         <v>4858.1500000000005</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1460,7 +1463,7 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
@@ -1472,10 +1475,10 @@
         <f t="shared" si="0"/>
         <v>4818.0000000000009</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1502,7 +1505,7 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
@@ -1514,10 +1517,10 @@
         <f t="shared" si="0"/>
         <v>4777.8500000000004</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1544,7 +1547,7 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
@@ -1556,10 +1559,10 @@
         <f t="shared" si="0"/>
         <v>4737.7000000000007</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1586,7 +1589,7 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
@@ -1598,10 +1601,10 @@
         <f t="shared" si="0"/>
         <v>4697.5500000000011</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1628,7 +1631,7 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
@@ -1640,10 +1643,10 @@
         <f t="shared" si="0"/>
         <v>4657.4000000000005</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1670,7 +1673,7 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
@@ -1682,10 +1685,10 @@
         <f t="shared" si="0"/>
         <v>4617.2500000000009</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1712,7 +1715,7 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
@@ -1724,10 +1727,10 @@
         <f t="shared" si="0"/>
         <v>4577.1000000000004</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1754,7 +1757,7 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
@@ -1766,10 +1769,10 @@
         <f t="shared" si="0"/>
         <v>4536.9500000000007</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1796,7 +1799,7 @@
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
@@ -1808,10 +1811,10 @@
         <f t="shared" si="0"/>
         <v>4496.8000000000011</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1838,7 +1841,7 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
@@ -1850,10 +1853,10 @@
         <f t="shared" si="0"/>
         <v>4456.6500000000005</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1880,7 +1883,7 @@
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
@@ -1892,10 +1895,10 @@
         <f t="shared" si="0"/>
         <v>4416.5000000000009</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1922,7 +1925,7 @@
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
@@ -1934,10 +1937,10 @@
         <f t="shared" si="0"/>
         <v>4376.3500000000004</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1964,7 +1967,7 @@
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
@@ -1976,10 +1979,10 @@
         <f t="shared" si="0"/>
         <v>2168.1000000000004</v>
       </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2006,7 +2009,7 @@
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
@@ -2018,10 +2021,10 @@
         <f t="shared" si="0"/>
         <v>2148.0250000000001</v>
       </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2048,7 +2051,7 @@
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
@@ -2060,10 +2063,10 @@
         <f t="shared" si="0"/>
         <v>2127.9500000000003</v>
       </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2090,7 +2093,7 @@
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
@@ -2102,10 +2105,10 @@
         <f t="shared" si="0"/>
         <v>2107.8750000000005</v>
       </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2125,7 +2128,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2138,7 +2141,7 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2178,7 +2181,7 @@
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <f>MAX(G3:G38)</f>
         <v>44840</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
+        <f>MAX(E3:E38)</f>
         <v>5621.0000000000009</v>
       </c>
       <c r="D43" s="1"/>

--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -183,9 +183,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,7 +228,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,7 +547,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,10 +633,10 @@
         <f>C3*D3</f>
         <v>5621.0000000000009</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -677,10 +675,12 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>5580.85</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="6">
+        <f>F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -719,10 +719,12 @@
         <f t="shared" si="0"/>
         <v>5540.7000000000007</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G39" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -761,10 +763,12 @@
         <f t="shared" si="0"/>
         <v>5500.5500000000011</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -803,10 +807,12 @@
         <f t="shared" si="0"/>
         <v>5460.4000000000005</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -845,10 +851,12 @@
         <f t="shared" si="0"/>
         <v>5420.2500000000009</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -887,10 +895,12 @@
         <f t="shared" si="0"/>
         <v>5380.1</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -929,10 +939,12 @@
         <f t="shared" si="0"/>
         <v>5339.9500000000007</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -971,10 +983,12 @@
         <f t="shared" si="0"/>
         <v>5299.8000000000011</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1013,10 +1027,12 @@
         <f t="shared" si="0"/>
         <v>5259.6500000000005</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1055,10 +1071,12 @@
         <f t="shared" si="0"/>
         <v>5219.5000000000009</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1097,10 +1115,12 @@
         <f t="shared" si="0"/>
         <v>5179.3500000000004</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1139,10 +1159,12 @@
         <f t="shared" si="0"/>
         <v>5139.2000000000007</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1181,10 +1203,12 @@
         <f t="shared" si="0"/>
         <v>5099.0500000000011</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1223,10 +1247,12 @@
         <f t="shared" si="0"/>
         <v>5058.9000000000005</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1265,10 +1291,12 @@
         <f t="shared" si="0"/>
         <v>5018.7500000000009</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1307,10 +1335,12 @@
         <f t="shared" si="0"/>
         <v>4978.6000000000004</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1349,10 +1379,12 @@
         <f t="shared" si="0"/>
         <v>4938.4500000000007</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1391,10 +1423,12 @@
         <f t="shared" si="0"/>
         <v>4898.3000000000011</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1433,10 +1467,12 @@
         <f t="shared" si="0"/>
         <v>4858.1500000000005</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1475,10 +1511,12 @@
         <f t="shared" si="0"/>
         <v>4818.0000000000009</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1517,10 +1555,12 @@
         <f t="shared" si="0"/>
         <v>4777.8500000000004</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1559,10 +1599,12 @@
         <f t="shared" si="0"/>
         <v>4737.7000000000007</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1601,10 +1643,12 @@
         <f t="shared" si="0"/>
         <v>4697.5500000000011</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1643,10 +1687,12 @@
         <f t="shared" si="0"/>
         <v>4657.4000000000005</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1685,10 +1731,12 @@
         <f t="shared" si="0"/>
         <v>4617.2500000000009</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1727,10 +1775,12 @@
         <f t="shared" si="0"/>
         <v>4577.1000000000004</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1769,10 +1819,12 @@
         <f t="shared" si="0"/>
         <v>4536.9500000000007</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1811,10 +1863,12 @@
         <f t="shared" si="0"/>
         <v>4496.8000000000011</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1853,10 +1907,12 @@
         <f t="shared" si="0"/>
         <v>4456.6500000000005</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1895,10 +1951,12 @@
         <f t="shared" si="0"/>
         <v>4416.5000000000009</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1937,10 +1995,12 @@
         <f t="shared" si="0"/>
         <v>4376.3500000000004</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1979,10 +2039,12 @@
         <f t="shared" si="0"/>
         <v>2168.1000000000004</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2021,10 +2083,12 @@
         <f t="shared" si="0"/>
         <v>2148.0250000000001</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2063,10 +2127,12 @@
         <f t="shared" si="0"/>
         <v>2127.9500000000003</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2105,10 +2171,12 @@
         <f t="shared" si="0"/>
         <v>2107.8750000000005</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2134,7 +2202,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2182,8 +2250,8 @@
         <v>50</v>
       </c>
       <c r="C42" s="5">
-        <f>MAX(G3:G38)</f>
-        <v>44840</v>
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>

--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,6 +688,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -732,6 +733,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I37" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -776,6 +778,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -820,6 +823,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -864,6 +868,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -908,6 +913,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -952,6 +958,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -996,6 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1040,6 +1048,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1047,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f>E12+J12</f>
         <v>5269.6500000000005</v>
       </c>
     </row>
@@ -1084,6 +1093,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1128,6 +1138,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1172,6 +1183,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1216,6 +1228,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1260,6 +1273,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1304,6 +1318,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1348,6 +1363,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1392,6 +1408,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1436,6 +1453,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1480,6 +1498,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1524,6 +1543,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1568,6 +1588,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1612,6 +1633,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1656,6 +1678,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1700,6 +1723,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1744,6 +1768,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1788,6 +1813,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1832,6 +1858,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1876,6 +1903,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1920,6 +1948,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1964,6 +1993,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2008,6 +2038,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2052,6 +2083,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2096,6 +2128,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2140,6 +2173,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2184,6 +2218,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f>I37</f>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2214,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(172289.55, 1)</f>
+        <f>FLOOR(SUM(K3:K38), 1)</f>
         <v>172289</v>
       </c>
       <c r="D40" s="1"/>
@@ -2268,7 +2303,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E3:E38)</f>
+        <f>MAX(K3:K38)</f>
         <v>5621.0000000000009</v>
       </c>
       <c r="D43" s="1"/>

--- a/LR3/table_1_73.xlsx
+++ b/LR3/table_1_73.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>172289</v>
       </c>
       <c r="D40" s="1"/>
